--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\Compressed\Portfolio-Website-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Portfolio-Website-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Email Id</t>
   </si>
   <si>
-    <t>https://www.instagram.com/sharmajii_27/</t>
-  </si>
-  <si>
     <t>GitHub Profile Link</t>
   </si>
   <si>
@@ -117,15 +114,6 @@
     <t>Python Developer</t>
   </si>
   <si>
-    <t>Resume Link</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Resume Link should be Google Drive Link or any other link which is visible to everyone with link.</t>
-  </si>
-  <si>
     <t>Experience</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>database</t>
   </si>
   <si>
-    <t>ww.instagram.com/l_yamn</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/anas-elyamni-630345279/</t>
   </si>
   <si>
@@ -291,7 +276,7 @@
     <t>web developer</t>
   </si>
   <si>
-    <t>https://www.canva.com/design/DAGJu9zUM2k/Ynlwj9sQfrkiNGpjybrjkA/edit?utm_content=DAGJu9zUM2k&amp;utm_campaign=designshare&amp;utm_medium=link2&amp;utm_source=sharebutton</t>
+    <t>https://www.instagram.com/</t>
   </si>
 </sst>
 </file>
@@ -642,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -680,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -688,22 +673,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN4" t="s">
         <v>45</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -716,32 +701,29 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -749,26 +731,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -776,10 +746,9 @@
     <hyperlink ref="C7" r:id="rId2"/>
     <hyperlink ref="B7" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -800,57 +769,57 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -877,13 +846,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -891,72 +860,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4">
         <v>42527</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6">
         <v>42752</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -983,61 +952,61 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,53 +1035,53 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
